--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="30">
   <si>
     <t>Profile</t>
   </si>
@@ -50,7 +50,7 @@
     <t>sd-erregernachweis</t>
   </si>
   <si>
-    <t>Profile - Erreger Nachweis</t>
+    <t>Profil - Erreger Nachweis</t>
   </si>
   <si>
     <t>null#26436-6, null#laboratory, null#18725-2</t>
@@ -89,10 +89,16 @@
     <t>LOINC#99350-1</t>
   </si>
   <si>
+    <t>LOINC#81267-7</t>
+  </si>
+  <si>
+    <t>stringĵ</t>
+  </si>
+  <si>
     <t>sd-mre-klasse</t>
   </si>
   <si>
-    <t>Profile - MRE Klasse</t>
+    <t>Profil - MRE Klasse</t>
   </si>
   <si>
     <t>null#99780-9</t>
@@ -229,7 +235,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -447,36 +453,71 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="B7" t="s" s="2">
+      <c r="F7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="C7" t="s" s="2">
+      <c r="I7" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="D7" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="F7" t="s" s="2">
+      <c r="D8" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="G7" t="s" s="2">
+      <c r="G8" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="H7" t="s" s="2">
+      <c r="H8" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="I7" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K7" t="s" s="2">
+      <c r="I8" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J8" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>14</v>
       </c>
     </row>
